--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Sdc2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H2">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I2">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J2">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N2">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q2">
-        <v>21.37460825539129</v>
+        <v>0.2105936840135556</v>
       </c>
       <c r="R2">
-        <v>21.37460825539129</v>
+        <v>1.895343156122</v>
       </c>
       <c r="S2">
-        <v>0.005318755472921941</v>
+        <v>4.773283177437532E-05</v>
       </c>
       <c r="T2">
-        <v>0.005318755472921941</v>
+        <v>4.773283177437534E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H3">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I3">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J3">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q3">
-        <v>453.7457937626565</v>
+        <v>4.147572164191445</v>
       </c>
       <c r="R3">
-        <v>453.7457937626565</v>
+        <v>37.328149477723</v>
       </c>
       <c r="S3">
-        <v>0.112907937074436</v>
+        <v>0.0009400821554206189</v>
       </c>
       <c r="T3">
-        <v>0.112907937074436</v>
+        <v>0.000940082155420619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H4">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I4">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J4">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N4">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q4">
-        <v>146.8073640722047</v>
+        <v>1.507472762444555</v>
       </c>
       <c r="R4">
-        <v>146.8073640722047</v>
+        <v>13.567254862001</v>
       </c>
       <c r="S4">
-        <v>0.03653084359697373</v>
+        <v>0.0003416813952007561</v>
       </c>
       <c r="T4">
-        <v>0.03653084359697373</v>
+        <v>0.0003416813952007562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H5">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I5">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J5">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N5">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q5">
-        <v>63.21762954167812</v>
+        <v>23.08973837739689</v>
       </c>
       <c r="R5">
-        <v>63.21762954167812</v>
+        <v>207.807645396572</v>
       </c>
       <c r="S5">
-        <v>0.01573077312540421</v>
+        <v>0.005233483629127646</v>
       </c>
       <c r="T5">
-        <v>0.01573077312540421</v>
+        <v>0.005233483629127647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H6">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I6">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J6">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N6">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q6">
-        <v>1342.000431233503</v>
+        <v>454.7446739494331</v>
       </c>
       <c r="R6">
-        <v>1342.000431233503</v>
+        <v>4092.702065544898</v>
       </c>
       <c r="S6">
-        <v>0.3339369804116268</v>
+        <v>0.1030717095035208</v>
       </c>
       <c r="T6">
-        <v>0.3339369804116268</v>
+        <v>0.1030717095035208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H7">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I7">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J7">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N7">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q7">
-        <v>434.1980655278684</v>
+        <v>165.2810807643029</v>
       </c>
       <c r="R7">
-        <v>434.1980655278684</v>
+        <v>1487.529726878726</v>
       </c>
       <c r="S7">
-        <v>0.1080437737040619</v>
+        <v>0.0374623486956123</v>
       </c>
       <c r="T7">
-        <v>0.1080437737040619</v>
+        <v>0.03746234869561231</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H8">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I8">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J8">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N8">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q8">
-        <v>52.98679768314003</v>
+        <v>68.38607126037844</v>
       </c>
       <c r="R8">
-        <v>52.98679768314003</v>
+        <v>615.474641343406</v>
       </c>
       <c r="S8">
-        <v>0.01318498176913837</v>
+        <v>0.01550027889237159</v>
       </c>
       <c r="T8">
-        <v>0.01318498176913837</v>
+        <v>0.01550027889237159</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H9">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I9">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J9">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N9">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q9">
-        <v>1124.817647481958</v>
+        <v>1346.840798699837</v>
       </c>
       <c r="R9">
-        <v>1124.817647481958</v>
+        <v>12121.56718829853</v>
       </c>
       <c r="S9">
-        <v>0.2798942533636776</v>
+        <v>0.3052728080252704</v>
       </c>
       <c r="T9">
-        <v>0.2798942533636776</v>
+        <v>0.3052728080252705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H10">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I10">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J10">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N10">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O10">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P10">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q10">
-        <v>363.9295750146412</v>
+        <v>489.5215174115914</v>
       </c>
       <c r="R10">
-        <v>363.9295750146412</v>
+        <v>4405.693656704323</v>
       </c>
       <c r="S10">
-        <v>0.09055849799628733</v>
+        <v>0.1109541739107446</v>
       </c>
       <c r="T10">
-        <v>0.09055849799628733</v>
+        <v>0.1109541739107446</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.257744267867173</v>
+        <v>29.37284333333333</v>
       </c>
       <c r="H11">
-        <v>0.257744267867173</v>
+        <v>88.11852999999999</v>
       </c>
       <c r="I11">
-        <v>0.003893203485472025</v>
+        <v>0.417009033544999</v>
       </c>
       <c r="J11">
-        <v>0.003893203485472025</v>
+        <v>0.4170090335449991</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N11">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O11">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P11">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q11">
-        <v>0.5377166206812634</v>
+        <v>66.05468792846445</v>
       </c>
       <c r="R11">
-        <v>0.5377166206812634</v>
+        <v>594.49219135618</v>
       </c>
       <c r="S11">
-        <v>0.0001338028367564674</v>
+        <v>0.01497185122890629</v>
       </c>
       <c r="T11">
-        <v>0.0001338028367564674</v>
+        <v>0.01497185122890629</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.257744267867173</v>
+        <v>29.37284333333333</v>
       </c>
       <c r="H12">
-        <v>0.257744267867173</v>
+        <v>88.11852999999999</v>
       </c>
       <c r="I12">
-        <v>0.003893203485472025</v>
+        <v>0.417009033544999</v>
       </c>
       <c r="J12">
-        <v>0.003893203485472025</v>
+        <v>0.4170090335449991</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N12">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O12">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P12">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q12">
-        <v>11.41478954632315</v>
+        <v>1300.924983812986</v>
       </c>
       <c r="R12">
-        <v>11.41478954632315</v>
+        <v>11708.32485431687</v>
       </c>
       <c r="S12">
-        <v>0.002840401734915774</v>
+        <v>0.2948656019495348</v>
       </c>
       <c r="T12">
-        <v>0.002840401734915774</v>
+        <v>0.2948656019495349</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,247 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>29.37284333333333</v>
+      </c>
+      <c r="H13">
+        <v>88.11852999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.417009033544999</v>
+      </c>
+      <c r="J13">
+        <v>0.4170090335449991</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.09762433333333</v>
+      </c>
+      <c r="N13">
+        <v>48.292873</v>
+      </c>
+      <c r="O13">
+        <v>0.2570006204793478</v>
+      </c>
+      <c r="P13">
+        <v>0.2570006204793479</v>
+      </c>
+      <c r="Q13">
+        <v>472.8329975818544</v>
+      </c>
+      <c r="R13">
+        <v>4255.49697823669</v>
+      </c>
+      <c r="S13">
+        <v>0.1071715803665579</v>
+      </c>
+      <c r="T13">
+        <v>0.1071715803665579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.257744267867173</v>
-      </c>
-      <c r="H13">
-        <v>0.257744267867173</v>
-      </c>
-      <c r="I13">
-        <v>0.003893203485472025</v>
-      </c>
-      <c r="J13">
-        <v>0.003893203485472025</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>14.3289419139119</v>
-      </c>
-      <c r="N13">
-        <v>14.3289419139119</v>
-      </c>
-      <c r="O13">
-        <v>0.2360521142111228</v>
-      </c>
-      <c r="P13">
-        <v>0.2360521142111228</v>
-      </c>
-      <c r="Q13">
-        <v>3.693202642912472</v>
-      </c>
-      <c r="R13">
-        <v>3.693202642912472</v>
-      </c>
-      <c r="S13">
-        <v>0.0009189989137997836</v>
-      </c>
-      <c r="T13">
-        <v>0.0009189989137997836</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J14">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.248835333333334</v>
+      </c>
+      <c r="N14">
+        <v>6.746506</v>
+      </c>
+      <c r="O14">
+        <v>0.03590294220158827</v>
+      </c>
+      <c r="P14">
+        <v>0.03590294220158827</v>
+      </c>
+      <c r="Q14">
+        <v>0.6600046850857779</v>
+      </c>
+      <c r="R14">
+        <v>5.940042165772001</v>
+      </c>
+      <c r="S14">
+        <v>0.0001495956194083729</v>
+      </c>
+      <c r="T14">
+        <v>0.0001495956194083729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J15">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N15">
+        <v>132.870179</v>
+      </c>
+      <c r="O15">
+        <v>0.7070964373190639</v>
+      </c>
+      <c r="P15">
+        <v>0.7070964373190639</v>
+      </c>
+      <c r="Q15">
+        <v>12.99857150474423</v>
+      </c>
+      <c r="R15">
+        <v>116.987143542698</v>
+      </c>
+      <c r="S15">
+        <v>0.002946235685317167</v>
+      </c>
+      <c r="T15">
+        <v>0.002946235685317168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J16">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.09762433333333</v>
+      </c>
+      <c r="N16">
+        <v>48.292873</v>
+      </c>
+      <c r="O16">
+        <v>0.2570006204793478</v>
+      </c>
+      <c r="P16">
+        <v>0.2570006204793479</v>
+      </c>
+      <c r="Q16">
+        <v>4.724448838591778</v>
+      </c>
+      <c r="R16">
+        <v>42.52003954732601</v>
+      </c>
+      <c r="S16">
+        <v>0.001070836111232227</v>
+      </c>
+      <c r="T16">
+        <v>0.001070836111232227</v>
       </c>
     </row>
   </sheetData>
